--- a/VISA_CommonUnit/bin/Release/CommandSets/Keithley  195A.xlsx
+++ b/VISA_CommonUnit/bin/Release/CommandSets/Keithley  195A.xlsx
@@ -194,14 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B1X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从Buffer读回值\n B0X  为从A/D直接读回,\n对单次读数来说两者没有差别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S9X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">摄氏温度功能\n 直流电压:  F0X    \n 交流电压:  F1X  \n 电阻:  F2X \n 直流电流:  F3X  \n 交流电流:  F4X \n 华氏温度:  F6X  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R0X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,11 +222,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动量程,\n R0~R7可选,值越大量程越大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读数设置:  积分时间100ms,5位半读数,8点平均\n   S0为3.33ms,3位半,1点  \n更多参考195A手册\n值越大越慢</t>
+    <t>B0X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动量程,\n R0~R7可选,值越大量程越大\n 参考195A 手册 4-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄氏温度功能\n 直流电压:  F0X    \n 交流电压:  F1X  \n       电阻:  F2X \n 直流电流:  F3X  \n 交流电流:  F4X \n 华氏温度:  F5X  \n \n参考195A 手册 4-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读数设置:  积分时间100ms,5位半读数,8点平均\n   S0为3.33ms,3位半,1点平均 \n值越大越慢 \n \n参考195A 手册 4-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从A/D直接读回值\n B0X  为从Buffer读回,\n对单次读数来说两者没有差别 \n但一般使用B0X，因为使用B1X会出现ldcc错误   \n \n参考195A 手册 4-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1528,13 +1528,13 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1542,13 +1542,13 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
